--- a/miniprojects/qa_excel_compiler/QAfolder/Alice_Quest.xlsx
+++ b/miniprojects/qa_excel_compiler/QAfolder/Alice_Quest.xlsx
@@ -475,7 +475,7 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>OK</t>
+          <t>NO ISSUE</t>
         </is>
       </c>
     </row>
@@ -495,12 +495,12 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>OK</t>
+          <t>NO ISSUE</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>I think it's fine actually</t>
+          <t>I think it's fine</t>
         </is>
       </c>
     </row>
@@ -520,12 +520,12 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>ERROR</t>
+          <t>ISSUE</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Missing article 'the'</t>
+          <t>Missing article</t>
         </is>
       </c>
     </row>
@@ -646,12 +646,12 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>OK</t>
+          <t>NO ISSUE</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Shop translation verified</t>
+          <t>Shop verified</t>
         </is>
       </c>
     </row>
